--- a/input/Controller.xlsx
+++ b/input/Controller.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Test_Scenario_Name</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Dove_AnalyticsSheet</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +541,9 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/Controller.xlsx
+++ b/input/Controller.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Suites" sheetId="2" r:id="rId1"/>
     <sheet name="Demo_TestSuite" sheetId="1" r:id="rId2"/>
-    <sheet name="RegressionSuite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Test_Scenario_Name</t>
   </si>
@@ -55,6 +54,9 @@
   </si>
   <si>
     <t>Dove_AnalyticsSheet</t>
+  </si>
+  <si>
+    <t>Copy</t>
   </si>
 </sst>
 </file>
@@ -456,7 +458,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,10 +498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,21 +547,24 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input/Controller.xlsx
+++ b/input/Controller.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>

--- a/input/Controller.xlsx
+++ b/input/Controller.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12210" windowHeight="5940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12210" windowHeight="5940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Suites" sheetId="2" r:id="rId1"/>
     <sheet name="Demo_TestSuite" sheetId="1" r:id="rId2"/>
+    <sheet name="RegressionSuite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Test_Scenario_Name</t>
   </si>
@@ -50,13 +51,16 @@
     <t>RegressionSuite</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Dove_AnalyticsSheet</t>
   </si>
   <si>
     <t>Copy</t>
+  </si>
+  <si>
+    <t>Copy2</t>
+  </si>
+  <si>
+    <t>Copy3</t>
   </si>
 </sst>
 </file>
@@ -458,7 +462,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -500,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="B2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,24 +548,97 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/input/Controller.xlsx
+++ b/input/Controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12210" windowHeight="5940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16590" windowHeight="3945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Suites" sheetId="2" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="RegressionSuite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Test_Scenario_Name</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>Copy3</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -462,7 +466,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -504,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="B2:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -577,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
@@ -632,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>

--- a/input/Controller.xlsx
+++ b/input/Controller.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16590" windowHeight="3945" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12210" windowHeight="5940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Suites" sheetId="2" r:id="rId1"/>
     <sheet name="Demo_TestSuite" sheetId="1" r:id="rId2"/>
     <sheet name="RegressionSuite" sheetId="3" r:id="rId3"/>
+    <sheet name="TestSuite" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Test_Scenario_Name</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>TestSuite</t>
+  </si>
+  <si>
+    <t>TestCase1</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -497,6 +509,14 @@
       </c>
       <c r="C4" s="7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -563,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -582,7 +602,7 @@
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
@@ -636,13 +656,69 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/input/Controller.xlsx
+++ b/input/Controller.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="12210" windowHeight="5940" activeTab="3"/>
@@ -10,14 +10,14 @@
     <sheet name="Suites" sheetId="2" r:id="rId1"/>
     <sheet name="Demo_TestSuite" sheetId="1" r:id="rId2"/>
     <sheet name="RegressionSuite" sheetId="3" r:id="rId3"/>
-    <sheet name="TestSuite" sheetId="4" r:id="rId4"/>
+    <sheet name="Dove_TestSuite" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>Test_Scenario_Name</t>
   </si>
@@ -70,13 +70,13 @@
     <t>NO</t>
   </si>
   <si>
-    <t>TestSuite</t>
-  </si>
-  <si>
-    <t>TestCase1</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>Dove_TestSuite</t>
+  </si>
+  <si>
+    <t>StoreLocator</t>
+  </si>
+  <si>
+    <t>Olapic</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,11 +168,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,13 +498,13 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -512,10 +532,10 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -672,52 +692,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
     </row>

--- a/input/Controller.xlsx
+++ b/input/Controller.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12210" windowHeight="5940" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12210" windowHeight="5940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Suites" sheetId="2" r:id="rId1"/>
-    <sheet name="Demo_TestSuite" sheetId="1" r:id="rId2"/>
-    <sheet name="RegressionSuite" sheetId="3" r:id="rId3"/>
-    <sheet name="Dove_TestSuite" sheetId="4" r:id="rId4"/>
+    <sheet name="Dove_TestSuite" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Test_Scenario_Name</t>
   </si>
@@ -31,9 +29,6 @@
     <t>Project_Name</t>
   </si>
   <si>
-    <t>US-EN-Storelocator</t>
-  </si>
-  <si>
     <t>Dove</t>
   </si>
   <si>
@@ -46,37 +41,22 @@
     <t>Project_Suite_Name</t>
   </si>
   <si>
-    <t>Demo_TestSuite</t>
-  </si>
-  <si>
-    <t>RegressionSuite</t>
-  </si>
-  <si>
-    <t>Dove_AnalyticsSheet</t>
-  </si>
-  <si>
-    <t>Copy</t>
-  </si>
-  <si>
-    <t>Copy2</t>
-  </si>
-  <si>
-    <t>Copy3</t>
+    <t>Dove_TestSuite</t>
+  </si>
+  <si>
+    <t>StoreLocator</t>
+  </si>
+  <si>
+    <t>Olapic</t>
+  </si>
+  <si>
+    <t>e-commerce</t>
+  </si>
+  <si>
+    <t>eCommerce</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Dove_TestSuite</t>
-  </si>
-  <si>
-    <t>StoreLocator</t>
-  </si>
-  <si>
-    <t>Olapic</t>
   </si>
 </sst>
 </file>
@@ -119,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,39 +122,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -495,48 +450,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>6</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -546,216 +485,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
